--- a/codebook/codebook.xlsx
+++ b/codebook/codebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ek/home/sync/FURD/Research/2021/2021_covid_ges_paper/git_paper/ru-covid19-regional-excess-mortality/codebook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ek/home/sync/personal/freelance/2020/2020_COVID19_RFFI/papers/2021_covid_ges_paper/git_paper/ru-covid19-regional-excess-mortality/codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DC444-4303-AB4B-A0B7-BD19569EA93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E33B7E-7BF7-AA4A-9E78-394DD539B2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26400" yWindow="500" windowWidth="24800" windowHeight="28300" xr2:uid="{9F52DFA4-EAEB-104A-9280-63207E38E4BA}"/>
   </bookViews>
@@ -840,13 +840,13 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="35.83203125" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
